--- a/00_data/bike_sales/data_raw/bikeshops.xlsx
+++ b/00_data/bike_sales/data_raw/bikeshops.xlsx
@@ -1,21 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdexter/Desktop/DS4B-101-R-Business-Analysis-With-R/00_data/bike_sales/data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4D35F-6177-5947-8583-40F5232F4FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28800" yWindow="-10340" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>bikeshop.id</t>
+  </si>
+  <si>
+    <t>bikeshop.name</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Pittsburgh Mountain Machines</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>Ithaca Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Ithaca, NY</t>
+  </si>
+  <si>
+    <t>Columbus Race Equipment</t>
+  </si>
+  <si>
+    <t>Columbus, OH</t>
+  </si>
+  <si>
+    <t>Detroit Cycles</t>
+  </si>
+  <si>
+    <t>Detroit, MI</t>
+  </si>
+  <si>
+    <t>Cincinnati Speed</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH</t>
+  </si>
+  <si>
+    <t>Louisville Race Equipment</t>
+  </si>
+  <si>
+    <t>Louisville, KY</t>
+  </si>
+  <si>
+    <t>Nashville Cruisers</t>
+  </si>
+  <si>
+    <t>Nashville, TN</t>
+  </si>
+  <si>
+    <t>Denver Bike Shop</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Minneapolis Bike Shop</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Kansas City 29ers</t>
+  </si>
+  <si>
+    <t>Kansas City, KS</t>
+  </si>
+  <si>
+    <t>New York Cycles</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Dallas Cycles</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Oklahoma City Race Equipment</t>
+  </si>
+  <si>
+    <t>Oklahoma City, OK</t>
+  </si>
+  <si>
+    <t>Albuquerque Cycles</t>
+  </si>
+  <si>
+    <t>Albuquerque, NM</t>
+  </si>
+  <si>
+    <t>Austin Cruisers</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Phoenix Bi-peds</t>
+  </si>
+  <si>
+    <t>Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>Las Vegas Cycles</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>Los Angeles Cycles</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>San Francisco Cruisers</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Portland Bi-peds</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Seattle Race Equipment</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Ann Arbor Speed</t>
+  </si>
+  <si>
+    <t>Ann Arbor, MI</t>
+  </si>
+  <si>
+    <t>Philadelphia Bike Shop</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Providence Bi-peds</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>New Orleans Velocipedes</t>
+  </si>
+  <si>
+    <t>New Orleans, LA</t>
+  </si>
+  <si>
+    <t>Miami Race Equipment</t>
+  </si>
+  <si>
+    <t>Miami, FL</t>
+  </si>
+  <si>
+    <t>San Antonio Bike Shop</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Wichita Speed</t>
+  </si>
+  <si>
+    <t>Wichita, KS</t>
+  </si>
+  <si>
+    <t>Indianapolis Velocipedes</t>
+  </si>
+  <si>
+    <t>Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>Tampa 29ers</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +263,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +349,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +401,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,478 +594,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="3" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bikeshop.id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bikeshop.name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pittsburgh Mountain Machines</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pittsburgh, PA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ithaca Mountain Climbers</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ithaca, NY</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Columbus Race Equipment</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Columbus, OH</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Detroit Cycles</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Detroit, MI</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cincinnati Speed</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cincinnati, OH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Louisville Race Equipment</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Louisville, KY</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nashville Cruisers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Nashville, TN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Denver Bike Shop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Denver, CO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Minneapolis Bike Shop</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Minneapolis, MN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Kansas City 29ers</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kansas City, KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>New York Cycles</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Dallas Cycles</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Dallas, TX</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Oklahoma City Race Equipment</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Oklahoma City, OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Albuquerque Cycles</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Albuquerque, NM</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Austin Cruisers</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Austin, TX</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Phoenix Bi-peds</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Phoenix, AZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Las Vegas Cycles</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Las Vegas, NV</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Los Angeles Cycles</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Los Angeles, CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>San Francisco Cruisers</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>San Francisco, CA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Portland Bi-peds</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portland, OR</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Seattle Race Equipment</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Seattle, WA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Ann Arbor Speed</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ann Arbor, MI</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Philadelphia Bike Shop</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Philadelphia, PA</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Providence Bi-peds</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Providence, RI</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>New Orleans Velocipedes</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>New Orleans, LA</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Miami Race Equipment</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Miami, FL</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>San Antonio Bike Shop</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>San Antonio, TX</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Wichita Speed</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Wichita, KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Indianapolis Velocipedes</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Indianapolis, IN</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Tampa 29ers</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Tampa, FL</t>
-        </is>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
